--- a/sport_info.xlsx
+++ b/sport_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliajones/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35722D26-29D6-0846-BCDE-93207C53E25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A59ECF6-63AB-8C40-9E8B-D2A6F9B847DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="15880" xr2:uid="{63BBEB73-9073-4E4C-8859-D6C02195A783}"/>
+    <workbookView xWindow="10200" yWindow="500" windowWidth="27640" windowHeight="15880" xr2:uid="{63BBEB73-9073-4E4C-8859-D6C02195A783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
